--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5792BC1-265E-44E6-91CD-B5F7AABC7DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4721EDAB-ACFE-4C8C-BB01-8ED279560D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="6" r:id="rId2"/>
+    <sheet name="Czech" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t>NGC-3478/T2262</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1731</t>
   </si>
 </sst>
 </file>
@@ -671,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,4 +814,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFD9C7-46B0-4D85-BE0F-FC93F3180CAE}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4721EDAB-ACFE-4C8C-BB01-8ED279560D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11EB7F1-DA29-4BAB-ACE3-4F00DD94CD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="6" r:id="rId2"/>
     <sheet name="Czech" sheetId="7" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -113,6 +114,12 @@
   </si>
   <si>
     <t>NGC-3477/T1731</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2343/T2641</t>
   </si>
 </sst>
 </file>
@@ -820,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFD9C7-46B0-4D85-BE0F-FC93F3180CAE}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,4 +963,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520461E-9FE5-4E84-ABF0-175527E2C253}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11EB7F1-DA29-4BAB-ACE3-4F00DD94CD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F34A08-1B1A-49C9-8260-C16E418ED42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="6" r:id="rId2"/>
     <sheet name="Czech" sheetId="7" r:id="rId3"/>
     <sheet name="Swiss" sheetId="8" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -120,6 +121,12 @@
   </si>
   <si>
     <t>NGC-3476/T2343/T2641</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2403/T2441</t>
   </si>
 </sst>
 </file>
@@ -969,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520461E-9FE5-4E84-ABF0-175527E2C253}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1105,4 +1112,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4DE163-ECF2-4F64-911F-993D2C2E60EE}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F34A08-1B1A-49C9-8260-C16E418ED42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EB0485-9026-4E84-B4FC-FBBB106B39CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="7" r:id="rId3"/>
     <sheet name="Swiss" sheetId="8" r:id="rId4"/>
     <sheet name="Portugal" sheetId="9" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>NGC-3479/T2403/T2441</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3219/T3183</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -1118,14 +1125,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4DE163-ECF2-4F64-911F-993D2C2E60EE}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1242,6 +1249,137 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B788924-9326-4ED3-BAD3-09D0FB116C99}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EB0485-9026-4E84-B4FC-FBBB106B39CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA0BB5A-4D21-4845-9F66-70A4AE948BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="8" r:id="rId4"/>
     <sheet name="Portugal" sheetId="9" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="10" r:id="rId6"/>
+    <sheet name="Italy" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -134,6 +135,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2153/T2218/T2456</t>
   </si>
 </sst>
 </file>
@@ -1266,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B788924-9326-4ED3-BAD3-09D0FB116C99}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,4 +1398,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1580734D-533B-4CC3-B0C3-BF32FA5F6457}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA0BB5A-4D21-4845-9F66-70A4AE948BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FA76DF-1872-46E8-8432-B4BC34B2B4B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="9" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="10" r:id="rId6"/>
     <sheet name="Italy" sheetId="11" r:id="rId7"/>
+    <sheet name="Spain" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t>NGC-3145/T2153/T2218/T2456</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2019/T2066/T2046</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
   </si>
 </sst>
 </file>
@@ -1404,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1580734D-533B-4CC3-B0C3-BF32FA5F6457}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1539,4 +1546,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26217B3A-76BD-4780-B57D-D43AFEB99CD1}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FA76DF-1872-46E8-8432-B4BC34B2B4B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FD084D-FDBA-4C26-89A7-727FC0369C95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="10" r:id="rId6"/>
     <sheet name="Italy" sheetId="11" r:id="rId7"/>
     <sheet name="Spain" sheetId="12" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -144,10 +145,16 @@
     <t>NGC-3145/T2153/T2218/T2456</t>
   </si>
   <si>
-    <t>NGC-3103/T2019/T2066/T2046</t>
-  </si>
-  <si>
     <t>Spain Market</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2019</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3290</t>
   </si>
 </sst>
 </file>
@@ -1552,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26217B3A-76BD-4780-B57D-D43AFEB99CD1}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1577,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1599,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1677,6 +1684,137 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83641E4-7A33-4B44-B271-2042B87E4878}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FD084D-FDBA-4C26-89A7-727FC0369C95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA86348-1A4B-48A5-A556-DE54A9B0176F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="11" r:id="rId7"/>
     <sheet name="Spain" sheetId="12" r:id="rId8"/>
     <sheet name="Turkey" sheetId="13" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -155,6 +156,12 @@
   </si>
   <si>
     <t>NGC-3191/T3290</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2414</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -716,6 +723,138 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69120E04-FF00-4BC1-BDAE-BBA514447558}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D19"/>
@@ -1701,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83641E4-7A33-4B44-B271-2042B87E4878}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA86348-1A4B-48A5-A556-DE54A9B0176F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D68FD1-83FF-47AF-84A4-A5E4B3BC4F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="12" r:id="rId8"/>
     <sheet name="Turkey" sheetId="13" r:id="rId9"/>
     <sheet name="Croatia" sheetId="14" r:id="rId10"/>
+    <sheet name="Greece" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -162,6 +163,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3164</t>
   </si>
 </sst>
 </file>
@@ -727,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69120E04-FF00-4BC1-BDAE-BBA514447558}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,6 +789,138 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D0A506-C976-433D-808E-0E8B72071455}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D68FD1-83FF-47AF-84A4-A5E4B3BC4F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCE93EC-0B68-4CD0-ACAF-AB4C514C76E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="13" r:id="rId9"/>
     <sheet name="Croatia" sheetId="14" r:id="rId10"/>
     <sheet name="Greece" sheetId="15" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="16" r:id="rId12"/>
+    <sheet name="Austria" sheetId="17" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -169,6 +172,24 @@
   </si>
   <si>
     <t>NGC-4119/T3164</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2175</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2271</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2271</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -866,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D0A506-C976-433D-808E-0E8B72071455}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -914,6 +935,409 @@
       </c>
       <c r="B4" t="s">
         <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84660271-7CC7-49C5-B7C6-E496D862AB40}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38FD62A-7939-45F8-A1E3-4B2E7BAAD14F}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525D0C5A-3408-48D8-9924-6961306C34AF}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCE93EC-0B68-4CD0-ACAF-AB4C514C76E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BCECA-B543-4658-8A2F-917E4CFB4578}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="16" r:id="rId12"/>
     <sheet name="Austria" sheetId="17" r:id="rId13"/>
     <sheet name="Denmark" sheetId="18" r:id="rId14"/>
+    <sheet name="Russia" sheetId="20" r:id="rId15"/>
+    <sheet name="Finland" sheetId="21" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -190,6 +193,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2897</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2940</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2989</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525D0C5A-3408-48D8-9924-6961306C34AF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1345,6 +1366,399 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECB5C0E-8E15-4498-B4D1-AE5E82755E57}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE13CDC2-A17E-46AB-B11F-F2ABBAF0D269}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B6270E-3728-4835-97AF-E53CA81BB647}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BCECA-B543-4658-8A2F-917E4CFB4578}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9992C064-A80E-4D36-A6EC-42E60DDB9764}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="20" r:id="rId15"/>
     <sheet name="Finland" sheetId="21" r:id="rId16"/>
     <sheet name="Hungary" sheetId="22" r:id="rId17"/>
+    <sheet name="Norway" sheetId="23" r:id="rId18"/>
+    <sheet name="Poland" sheetId="24" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="58">
   <si>
     <t>Wg</t>
   </si>
@@ -211,6 +213,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3058</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3101</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B6270E-3728-4835-97AF-E53CA81BB647}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
@@ -1759,6 +1773,270 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73648EE-C512-4CC5-8706-7795208559FF}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79BB113-D307-432F-B01A-81F8D45C1DEB}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Accessories.xlsx
+++ b/Test Data/Gallery_Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9992C064-A80E-4D36-A6EC-42E60DDB9764}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F4B6DA-A63E-4958-B6BC-6216854E8453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="22" r:id="rId17"/>
     <sheet name="Norway" sheetId="23" r:id="rId18"/>
     <sheet name="Poland" sheetId="24" r:id="rId19"/>
+    <sheet name="UK" sheetId="25" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="60">
   <si>
     <t>Wg</t>
   </si>
@@ -225,6 +226,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3340</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73648EE-C512-4CC5-8706-7795208559FF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2252,6 +2259,147 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC18A367-9D46-4404-9A08-60A69BF67C09}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFD9C7-46B0-4D85-BE0F-FC93F3180CAE}">
   <dimension ref="A1:D19"/>
